--- a/details.xlsx
+++ b/details.xlsx
@@ -1,17 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A71627B-2770-4007-8152-A49ABDB4FDB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721BFCA8-8B1E-4ACD-A70E-850CB9621AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="data1" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="6" r:id="rId2"/>
+    <sheet name="36 bill" sheetId="4" r:id="rId3"/>
+    <sheet name="67 part new" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data1!$I$1:$I$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Sheet2!$I$1:$I$44</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -22,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="461">
   <si>
     <t>Email</t>
   </si>
@@ -87,210 +94,6 @@
     <t>Response_Amount</t>
   </si>
   <si>
-    <t>SONU AGRAWAL</t>
-  </si>
-  <si>
-    <t>NARENDRA</t>
-  </si>
-  <si>
-    <t>GULAM RASHUL</t>
-  </si>
-  <si>
-    <t>NAZARUDDIN</t>
-  </si>
-  <si>
-    <t>TEJ MAL KUMAWAT</t>
-  </si>
-  <si>
-    <t>Mrs. Manni Devi Sahu</t>
-  </si>
-  <si>
-    <t>MUNNI DEVI</t>
-  </si>
-  <si>
-    <t>MOHAN LAL</t>
-  </si>
-  <si>
-    <t>M/S SHIKHAR PRINTERS</t>
-  </si>
-  <si>
-    <t>Ramesh Chand</t>
-  </si>
-  <si>
-    <t>JHAMAT MAL</t>
-  </si>
-  <si>
-    <t>VIMLA DEVI</t>
-  </si>
-  <si>
-    <t>KAJOD MAL SHARMA</t>
-  </si>
-  <si>
-    <t>ROSHAN LAL SARRAF</t>
-  </si>
-  <si>
-    <t>SUKH SINGH RATHOR</t>
-  </si>
-  <si>
-    <t>UMASHANKAR AGARWAL</t>
-  </si>
-  <si>
-    <t>OM PRAKASH VAJPAYEE</t>
-  </si>
-  <si>
-    <t>SH KHOOB CHAND MISTRI</t>
-  </si>
-  <si>
-    <t>M/S SURAJ MURTI KALA</t>
-  </si>
-  <si>
-    <t>SMT KESHARI DEVI</t>
-  </si>
-  <si>
-    <t>M/S SURAJ MURTI KALA KUNJ</t>
-  </si>
-  <si>
-    <t>RAMESH CHAND VAJPEI</t>
-  </si>
-  <si>
-    <t>SHRI KRISHAN KUMAR VAJPEI</t>
-  </si>
-  <si>
-    <t>Shiv Charan Lal</t>
-  </si>
-  <si>
-    <t>MOHAN SINGH</t>
-  </si>
-  <si>
-    <t>LAXMI NARAYAN SAHU</t>
-  </si>
-  <si>
-    <t>SH. SHANTI LAL KHANDELWAL</t>
-  </si>
-  <si>
-    <t>JAGDISH NARYAN JOONWAL</t>
-  </si>
-  <si>
-    <t>JAGDISH NARAYAN JUNKAL</t>
-  </si>
-  <si>
-    <t>MUNNI DEVI GUPTA</t>
-  </si>
-  <si>
-    <t>MITHU RAM</t>
-  </si>
-  <si>
-    <t>SANJAY SHARMA</t>
-  </si>
-  <si>
-    <t>HAJARI LAL NARAIN</t>
-  </si>
-  <si>
-    <t>NARGIS BEGAM</t>
-  </si>
-  <si>
-    <t>Ghasi Lal</t>
-  </si>
-  <si>
-    <t>MOHAN LAL HALVAI</t>
-  </si>
-  <si>
-    <t>SHASHI KUMAR PRABHANE</t>
-  </si>
-  <si>
-    <t>MALI RAM</t>
-  </si>
-  <si>
-    <t>DILIP RAJ</t>
-  </si>
-  <si>
-    <t>SMT BHANWARI DEVI</t>
-  </si>
-  <si>
-    <t>KAMLA DEVI W/O</t>
-  </si>
-  <si>
-    <t>GOKUL NARAYAN SHARMA</t>
-  </si>
-  <si>
-    <t>SARDAR GEGAM</t>
-  </si>
-  <si>
-    <t>TARE CHAND SAINI</t>
-  </si>
-  <si>
-    <t>PAPPU GOLECHA</t>
-  </si>
-  <si>
-    <t>GIRIJA SHANKAR</t>
-  </si>
-  <si>
-    <t>MEHRU NISHA</t>
-  </si>
-  <si>
-    <t>PRESIDENTKARNI CHARAN</t>
-  </si>
-  <si>
-    <t>SUSHILA DEVI</t>
-  </si>
-  <si>
-    <t>DEVKI NANDAN</t>
-  </si>
-  <si>
-    <t>UMA SHANKAR SONI</t>
-  </si>
-  <si>
-    <t>M/S CALCATA REDIYAM</t>
-  </si>
-  <si>
-    <t>MALI RAM JAMADAR</t>
-  </si>
-  <si>
-    <t>BEBI BANO</t>
-  </si>
-  <si>
-    <t>UDAI SINGH</t>
-  </si>
-  <si>
-    <t>ISHWAR LAL MALHOTRA</t>
-  </si>
-  <si>
-    <t>NESHAR AHAMED</t>
-  </si>
-  <si>
-    <t>LALLU RAM</t>
-  </si>
-  <si>
-    <t>CHOTH MAL SAINI</t>
-  </si>
-  <si>
-    <t>MALI RAM MASTER</t>
-  </si>
-  <si>
-    <t>CHAUHAN FURNI SINGH</t>
-  </si>
-  <si>
-    <t>RAM SNEHI MAHARAJ</t>
-  </si>
-  <si>
-    <t>SH.VIJAY KUMAR</t>
-  </si>
-  <si>
-    <t>MUNNA LAL</t>
-  </si>
-  <si>
-    <t>MADAN lal</t>
-  </si>
-  <si>
-    <t>VINOD KUMAR</t>
-  </si>
-  <si>
-    <t>RAM DEV GURJAR</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
     <t>210594017733</t>
   </si>
   <si>
@@ -505,6 +308,1110 @@
   </si>
   <si>
     <t>Pending</t>
+  </si>
+  <si>
+    <t>210131060567</t>
+  </si>
+  <si>
+    <t>210474063166</t>
+  </si>
+  <si>
+    <t>210571008142</t>
+  </si>
+  <si>
+    <t>210131037275</t>
+  </si>
+  <si>
+    <t>210571017228</t>
+  </si>
+  <si>
+    <t>210131039053</t>
+  </si>
+  <si>
+    <t>210131027161</t>
+  </si>
+  <si>
+    <t>210571020801</t>
+  </si>
+  <si>
+    <t>210474020588</t>
+  </si>
+  <si>
+    <t>210162016745</t>
+  </si>
+  <si>
+    <t>210571035746</t>
+  </si>
+  <si>
+    <t>210571030333</t>
+  </si>
+  <si>
+    <t>210162015733</t>
+  </si>
+  <si>
+    <t>210474066170</t>
+  </si>
+  <si>
+    <t>210162006947</t>
+  </si>
+  <si>
+    <t>210131033768</t>
+  </si>
+  <si>
+    <t>210131049329</t>
+  </si>
+  <si>
+    <t>210571013229</t>
+  </si>
+  <si>
+    <t>210131031221</t>
+  </si>
+  <si>
+    <t>210131033767</t>
+  </si>
+  <si>
+    <t>210162016407</t>
+  </si>
+  <si>
+    <t>210571025491</t>
+  </si>
+  <si>
+    <t>210131037791</t>
+  </si>
+  <si>
+    <t>210131050705</t>
+  </si>
+  <si>
+    <t>210571009945</t>
+  </si>
+  <si>
+    <t>210131036074</t>
+  </si>
+  <si>
+    <t>210571002823</t>
+  </si>
+  <si>
+    <t>210131060510</t>
+  </si>
+  <si>
+    <t>210162006520</t>
+  </si>
+  <si>
+    <t>210162047267</t>
+  </si>
+  <si>
+    <t>210474033553</t>
+  </si>
+  <si>
+    <t>210474071861</t>
+  </si>
+  <si>
+    <t>210474069100</t>
+  </si>
+  <si>
+    <t>210131038101</t>
+  </si>
+  <si>
+    <t>210131038408</t>
+  </si>
+  <si>
+    <t>210131036604</t>
+  </si>
+  <si>
+    <t>23976.00</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGGJPV</t>
+  </si>
+  <si>
+    <t>20554.00</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGGKFU</t>
+  </si>
+  <si>
+    <t>20003.00</t>
+  </si>
+  <si>
+    <t>EU011291T00007136169</t>
+  </si>
+  <si>
+    <t>19200.00</t>
+  </si>
+  <si>
+    <t>EU011291T00007136268</t>
+  </si>
+  <si>
+    <t>16386.00</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGGM8R</t>
+  </si>
+  <si>
+    <t>15740.00</t>
+  </si>
+  <si>
+    <t>15510.00</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGGOTN</t>
+  </si>
+  <si>
+    <t>14130.00</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGGPNL</t>
+  </si>
+  <si>
+    <t>13963.00</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGGQGT</t>
+  </si>
+  <si>
+    <t>13750.00</t>
+  </si>
+  <si>
+    <t>13702.00</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGGR5C</t>
+  </si>
+  <si>
+    <t>13542.00</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGGSUY</t>
+  </si>
+  <si>
+    <t>12740.00</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGGTPW</t>
+  </si>
+  <si>
+    <t>11967.00</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGGUFT</t>
+  </si>
+  <si>
+    <t>11697.00</t>
+  </si>
+  <si>
+    <t>11476.00</t>
+  </si>
+  <si>
+    <t>11449.00</t>
+  </si>
+  <si>
+    <t>11270.00</t>
+  </si>
+  <si>
+    <t>10373.00</t>
+  </si>
+  <si>
+    <t>10318.00</t>
+  </si>
+  <si>
+    <t>12434.00</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGG21Q</t>
+  </si>
+  <si>
+    <t>EU011291T00007138308</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGG4JZ</t>
+  </si>
+  <si>
+    <t>EU011291T00007138464</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGG6U6</t>
+  </si>
+  <si>
+    <t>EU011291T00007138721</t>
+  </si>
+  <si>
+    <t>10031.00</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGG8FU</t>
+  </si>
+  <si>
+    <t>10001.00</t>
+  </si>
+  <si>
+    <t>EU011291T00007138924</t>
+  </si>
+  <si>
+    <t>8544.00</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGHAUI</t>
+  </si>
+  <si>
+    <t>8198.00</t>
+  </si>
+  <si>
+    <t>EU011291T00007139203</t>
+  </si>
+  <si>
+    <t>7866.00</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGHCHK</t>
+  </si>
+  <si>
+    <t>7273.00</t>
+  </si>
+  <si>
+    <t>EU011291T00007139406</t>
+  </si>
+  <si>
+    <t>7148.00</t>
+  </si>
+  <si>
+    <t>6321.00</t>
+  </si>
+  <si>
+    <t>10896.00</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGHH0C</t>
+  </si>
+  <si>
+    <t>8655.00</t>
+  </si>
+  <si>
+    <t>EU011291T00007140092</t>
+  </si>
+  <si>
+    <t>7178.00</t>
+  </si>
+  <si>
+    <t>EU011291T00007140260</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGHKWJ</t>
+  </si>
+  <si>
+    <t>EU011291T00007140444</t>
+  </si>
+  <si>
+    <t>EU011291T00007140828</t>
+  </si>
+  <si>
+    <t>9145.00</t>
+  </si>
+  <si>
+    <t>EU011291T00007140995</t>
+  </si>
+  <si>
+    <t>7480.00</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGHQNN</t>
+  </si>
+  <si>
+    <t>7005.00</t>
+  </si>
+  <si>
+    <t>EU011291T00007141159</t>
+  </si>
+  <si>
+    <t>210451019976</t>
+  </si>
+  <si>
+    <t>210451003431</t>
+  </si>
+  <si>
+    <t>210451023089</t>
+  </si>
+  <si>
+    <t>210433023724</t>
+  </si>
+  <si>
+    <t>210433021804</t>
+  </si>
+  <si>
+    <t>210451020246</t>
+  </si>
+  <si>
+    <t>210451015078</t>
+  </si>
+  <si>
+    <t>210451012070</t>
+  </si>
+  <si>
+    <t>210451023029</t>
+  </si>
+  <si>
+    <t>210451003239</t>
+  </si>
+  <si>
+    <t>210451023285</t>
+  </si>
+  <si>
+    <t>210451020376</t>
+  </si>
+  <si>
+    <t>210451020380</t>
+  </si>
+  <si>
+    <t>210451013764</t>
+  </si>
+  <si>
+    <t>210451025207</t>
+  </si>
+  <si>
+    <t>210451023124</t>
+  </si>
+  <si>
+    <t>210451011766</t>
+  </si>
+  <si>
+    <t>210451023022</t>
+  </si>
+  <si>
+    <t>210453028935</t>
+  </si>
+  <si>
+    <t>210451003065</t>
+  </si>
+  <si>
+    <t>210433001021</t>
+  </si>
+  <si>
+    <t>210451022600</t>
+  </si>
+  <si>
+    <t>210451002840</t>
+  </si>
+  <si>
+    <t>210451003309</t>
+  </si>
+  <si>
+    <t>210451003491</t>
+  </si>
+  <si>
+    <t>210451023175</t>
+  </si>
+  <si>
+    <t>210453003660</t>
+  </si>
+  <si>
+    <t>210451003336</t>
+  </si>
+  <si>
+    <t>210451020343</t>
+  </si>
+  <si>
+    <t>210433021824</t>
+  </si>
+  <si>
+    <t>210433022425</t>
+  </si>
+  <si>
+    <t>210472018746</t>
+  </si>
+  <si>
+    <t>210443017123</t>
+  </si>
+  <si>
+    <t>210451012060</t>
+  </si>
+  <si>
+    <t>210451022139</t>
+  </si>
+  <si>
+    <t>210451013541</t>
+  </si>
+  <si>
+    <t>210451013349</t>
+  </si>
+  <si>
+    <t>210453001924</t>
+  </si>
+  <si>
+    <t>210451002716</t>
+  </si>
+  <si>
+    <t>210433001975</t>
+  </si>
+  <si>
+    <t>210451003531</t>
+  </si>
+  <si>
+    <t>210433027487</t>
+  </si>
+  <si>
+    <t>210451023774</t>
+  </si>
+  <si>
+    <t>210522009605</t>
+  </si>
+  <si>
+    <t>210434012054</t>
+  </si>
+  <si>
+    <t>210451003247</t>
+  </si>
+  <si>
+    <t>210451003248</t>
+  </si>
+  <si>
+    <t>210451015116</t>
+  </si>
+  <si>
+    <t>210451025714</t>
+  </si>
+  <si>
+    <t>210451003330</t>
+  </si>
+  <si>
+    <t>210451002950</t>
+  </si>
+  <si>
+    <t>210412019619</t>
+  </si>
+  <si>
+    <t>210433008507</t>
+  </si>
+  <si>
+    <t>210451010495</t>
+  </si>
+  <si>
+    <t>210451013647</t>
+  </si>
+  <si>
+    <t>210433008787</t>
+  </si>
+  <si>
+    <t>210454013233</t>
+  </si>
+  <si>
+    <t>210451003110</t>
+  </si>
+  <si>
+    <t>210433027302</t>
+  </si>
+  <si>
+    <t>210451013466</t>
+  </si>
+  <si>
+    <t>210451003106</t>
+  </si>
+  <si>
+    <t>210411016577</t>
+  </si>
+  <si>
+    <t>210411019216</t>
+  </si>
+  <si>
+    <t>210411007596</t>
+  </si>
+  <si>
+    <t>210411010395</t>
+  </si>
+  <si>
+    <t>210453027013</t>
+  </si>
+  <si>
+    <t>19728.00</t>
+  </si>
+  <si>
+    <t>6625.00</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGK9W6</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGLAKE</t>
+  </si>
+  <si>
+    <t>9854.00</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGLA95</t>
+  </si>
+  <si>
+    <t>7667.00</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGLBZ8</t>
+  </si>
+  <si>
+    <t>4243.00</t>
+  </si>
+  <si>
+    <t>EU011291T00007158451</t>
+  </si>
+  <si>
+    <t>3602.00</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGLDLA</t>
+  </si>
+  <si>
+    <t>3542.00</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGLECF</t>
+  </si>
+  <si>
+    <t>7602.00</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGLE73</t>
+  </si>
+  <si>
+    <t>4940.00</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGLF05</t>
+  </si>
+  <si>
+    <t>6751.00</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGLGV6</t>
+  </si>
+  <si>
+    <t>5267.00</t>
+  </si>
+  <si>
+    <t>EU011291T00007159090</t>
+  </si>
+  <si>
+    <t>7175.00</t>
+  </si>
+  <si>
+    <t>4105.00</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGLOZI</t>
+  </si>
+  <si>
+    <t>5370.00</t>
+  </si>
+  <si>
+    <t>EU011291T00007160242</t>
+  </si>
+  <si>
+    <t>18097.00</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGLQ5B</t>
+  </si>
+  <si>
+    <t>3201.00</t>
+  </si>
+  <si>
+    <t>EU011291T00007160474</t>
+  </si>
+  <si>
+    <t>4828.00</t>
+  </si>
+  <si>
+    <t>EU011291T00007160565</t>
+  </si>
+  <si>
+    <t>4842.00</t>
+  </si>
+  <si>
+    <t>EU011291T00007160671</t>
+  </si>
+  <si>
+    <t>3832.00</t>
+  </si>
+  <si>
+    <t>EU011291T00007160827</t>
+  </si>
+  <si>
+    <t>3435.00</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGLVU3</t>
+  </si>
+  <si>
+    <t>3010.00</t>
+  </si>
+  <si>
+    <t>6375.00</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGLXIX</t>
+  </si>
+  <si>
+    <t>11399.00</t>
+  </si>
+  <si>
+    <t>5070.00</t>
+  </si>
+  <si>
+    <t>EU011291T00007161410</t>
+  </si>
+  <si>
+    <t>3229.00</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGOJB9</t>
+  </si>
+  <si>
+    <t>3279.00</t>
+  </si>
+  <si>
+    <t>EU011291T00007171003</t>
+  </si>
+  <si>
+    <t>3297.00</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGOKP0</t>
+  </si>
+  <si>
+    <t>3426.00</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGOLIM</t>
+  </si>
+  <si>
+    <t>3461.00</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGOMMU</t>
+  </si>
+  <si>
+    <t>3638.00</t>
+  </si>
+  <si>
+    <t>EU011291T00007171479</t>
+  </si>
+  <si>
+    <t>3652.00</t>
+  </si>
+  <si>
+    <t>3683.00</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGOPCZ</t>
+  </si>
+  <si>
+    <t>3763.00</t>
+  </si>
+  <si>
+    <t>EU011291T00007171858</t>
+  </si>
+  <si>
+    <t>3903.00</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGOQVW</t>
+  </si>
+  <si>
+    <t>3987.00</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGORMB</t>
+  </si>
+  <si>
+    <t>4078.00</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGOSE7</t>
+  </si>
+  <si>
+    <t>4084.00</t>
+  </si>
+  <si>
+    <t>EU011291T00007172307</t>
+  </si>
+  <si>
+    <t>4157.00</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGOTXR</t>
+  </si>
+  <si>
+    <t>4277.00</t>
+  </si>
+  <si>
+    <t>4361.00</t>
+  </si>
+  <si>
+    <t>4526.00</t>
+  </si>
+  <si>
+    <t>4527.00</t>
+  </si>
+  <si>
+    <t>4554.00</t>
+  </si>
+  <si>
+    <t>4762.00</t>
+  </si>
+  <si>
+    <t>4880.00</t>
+  </si>
+  <si>
+    <t>4908.00</t>
+  </si>
+  <si>
+    <t>5042.00</t>
+  </si>
+  <si>
+    <t>5118.00</t>
+  </si>
+  <si>
+    <t>5187.00</t>
+  </si>
+  <si>
+    <t>5304.00</t>
+  </si>
+  <si>
+    <t>5364.00</t>
+  </si>
+  <si>
+    <t>6130.00</t>
+  </si>
+  <si>
+    <t>6586.00</t>
+  </si>
+  <si>
+    <t>6624.00</t>
+  </si>
+  <si>
+    <t>7133.00</t>
+  </si>
+  <si>
+    <t>7306.00</t>
+  </si>
+  <si>
+    <t>7975.00</t>
+  </si>
+  <si>
+    <t>8792.00</t>
+  </si>
+  <si>
+    <t>9354.00</t>
+  </si>
+  <si>
+    <t>9809.00</t>
+  </si>
+  <si>
+    <t>10895.00</t>
+  </si>
+  <si>
+    <t>13322.00</t>
+  </si>
+  <si>
+    <t>14344.00</t>
+  </si>
+  <si>
+    <t>16193.00</t>
+  </si>
+  <si>
+    <t>4195.00</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGO3MY</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGO4FR</t>
+  </si>
+  <si>
+    <t>EU011291T00007174022</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGO5WR</t>
+  </si>
+  <si>
+    <t>EU011291T00007174224</t>
+  </si>
+  <si>
+    <t>EU011291T00007174328</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGPACJ</t>
+  </si>
+  <si>
+    <t>EU011291T00007174884</t>
+  </si>
+  <si>
+    <t>EU011291T00007175069</t>
+  </si>
+  <si>
+    <t>EU011291T00007175168</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGPD14</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGPEOW</t>
+  </si>
+  <si>
+    <t>EU011291T00007175472</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGPF7I</t>
+  </si>
+  <si>
+    <t>5644.00</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGPSVD</t>
+  </si>
+  <si>
+    <t>EU011291T00007177506</t>
+  </si>
+  <si>
+    <t>EU011291T00007178011</t>
+  </si>
+  <si>
+    <t>EU011291T00007178116</t>
+  </si>
+  <si>
+    <t>EU011291T00007178219</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGPYUS</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGPZOE</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGQAGS</t>
+  </si>
+  <si>
+    <t>210162020348</t>
+  </si>
+  <si>
+    <t>210131034975</t>
+  </si>
+  <si>
+    <t>210474013789</t>
+  </si>
+  <si>
+    <t>210131041782</t>
+  </si>
+  <si>
+    <t>210162042088</t>
+  </si>
+  <si>
+    <t>210162024914</t>
+  </si>
+  <si>
+    <t>210571003124</t>
+  </si>
+  <si>
+    <t>210162007564</t>
+  </si>
+  <si>
+    <t>210131039226</t>
+  </si>
+  <si>
+    <t>210131020448</t>
+  </si>
+  <si>
+    <t>210571040401</t>
+  </si>
+  <si>
+    <t>210571044352</t>
+  </si>
+  <si>
+    <t>210474007270</t>
+  </si>
+  <si>
+    <t>210131023399</t>
+  </si>
+  <si>
+    <t>210162034170</t>
+  </si>
+  <si>
+    <t>210131036535</t>
+  </si>
+  <si>
+    <t>210474017905</t>
+  </si>
+  <si>
+    <t>210571045013</t>
+  </si>
+  <si>
+    <t>210474054677</t>
+  </si>
+  <si>
+    <t>210131054401</t>
+  </si>
+  <si>
+    <t>210162032153</t>
+  </si>
+  <si>
+    <t>210571002818</t>
+  </si>
+  <si>
+    <t>210131039651</t>
+  </si>
+  <si>
+    <t>210474027651</t>
+  </si>
+  <si>
+    <t>210162011614</t>
+  </si>
+  <si>
+    <t>210131038919</t>
+  </si>
+  <si>
+    <t>210131040539</t>
+  </si>
+  <si>
+    <t>210571048035</t>
+  </si>
+  <si>
+    <t>210474064587</t>
+  </si>
+  <si>
+    <t>210131032724</t>
+  </si>
+  <si>
+    <t>210162011949</t>
+  </si>
+  <si>
+    <t>210162037702</t>
+  </si>
+  <si>
+    <t>210571041280</t>
+  </si>
+  <si>
+    <t>210131036058</t>
+  </si>
+  <si>
+    <t>210474033988</t>
+  </si>
+  <si>
+    <t>3758.00</t>
+  </si>
+  <si>
+    <t>3750.00</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGQQW0</t>
+  </si>
+  <si>
+    <t>3723.00</t>
+  </si>
+  <si>
+    <t>EU011291T00007182792</t>
+  </si>
+  <si>
+    <t>3671.00</t>
+  </si>
+  <si>
+    <t>3571.00</t>
+  </si>
+  <si>
+    <t>EU011291T00007182960</t>
+  </si>
+  <si>
+    <t>3560.00</t>
+  </si>
+  <si>
+    <t>3487.00</t>
+  </si>
+  <si>
+    <t>3399.00</t>
+  </si>
+  <si>
+    <t>3246.00</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGQU0B</t>
+  </si>
+  <si>
+    <t>3215.00</t>
+  </si>
+  <si>
+    <t>3206.00</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGQVBE</t>
+  </si>
+  <si>
+    <t>3157.00</t>
+  </si>
+  <si>
+    <t>3098.00</t>
+  </si>
+  <si>
+    <t>3089.00</t>
+  </si>
+  <si>
+    <t>3084.00</t>
+  </si>
+  <si>
+    <t>3005.00</t>
+  </si>
+  <si>
+    <t>EU011291T00007183450</t>
+  </si>
+  <si>
+    <t>3214.00</t>
+  </si>
+  <si>
+    <t>2945.00</t>
+  </si>
+  <si>
+    <t>2936.00</t>
+  </si>
+  <si>
+    <t>2801.00</t>
+  </si>
+  <si>
+    <t>2739.00</t>
+  </si>
+  <si>
+    <t>2640.00</t>
+  </si>
+  <si>
+    <t>2615.00</t>
+  </si>
+  <si>
+    <t>2574.00</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGQY68</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGQZ31</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGQ0DE</t>
+  </si>
+  <si>
+    <t>EU011291T00007184253</t>
+  </si>
+  <si>
+    <t>EU011291T00007184290</t>
+  </si>
+  <si>
+    <t>EU011291T00007184329</t>
+  </si>
+  <si>
+    <t>EU011291T00007184389</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGQ1PI</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGQ203</t>
+  </si>
+  <si>
+    <t>EU011291T00007184791</t>
+  </si>
+  <si>
+    <t>BD011291OA3AAADGQ3LK</t>
   </si>
 </sst>
 </file>
@@ -576,7 +1483,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -599,12 +1506,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD5D5D5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD5D5D5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD5D5D5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD5D5D5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -655,6 +1620,51 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -936,10 +1946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -947,8 +1957,8 @@
     <col min="1" max="1" width="24" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="8"/>
-    <col min="4" max="4" width="40.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.42578125" style="7" customWidth="1"/>
     <col min="8" max="8" width="31.42578125" style="8" bestFit="1" customWidth="1"/>
@@ -956,7 +1966,7 @@
     <col min="10" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="5" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -969,7 +1979,7 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -985,110 +1995,2410 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>158</v>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="F2" s="26">
+        <v>13322</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>158</v>
+        <v>358</v>
       </c>
       <c r="H2" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="F3" s="26">
+        <v>3750</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="F4" s="26">
+        <v>3723</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="F5" s="26">
+        <v>3571</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="F6" s="26">
+        <v>3560</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="I6" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="F7" s="26">
+        <v>3487</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="H4" s="8" t="s">
+      <c r="I7" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="F8" s="26">
+        <v>3478</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>159</v>
+      <c r="I8" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="F9" s="26">
+        <v>3399</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="F10" s="26">
+        <v>3344</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="F11" s="26">
+        <v>3246</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="F12" s="26">
+        <v>3237</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="F13" s="26">
+        <v>3215</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="F14" s="26">
+        <v>3214</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="F15" s="26">
+        <v>3206</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>403</v>
+      </c>
+      <c r="F16" s="26">
+        <v>3157</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="F17" s="26">
+        <v>3098</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="F18" s="26">
+        <v>3089</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="F19" s="26">
+        <v>3084</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="F20" s="26">
+        <v>3005</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="F21" s="26">
+        <v>2948</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="F22" s="26">
+        <v>2945</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>410</v>
+      </c>
+      <c r="F23" s="26">
+        <v>2936</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="F24" s="26">
+        <v>2881</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="F25" s="26">
+        <v>2801</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="F26" s="26">
+        <v>2739</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="F27" s="26">
+        <v>2640</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="F28" s="26">
+        <v>2639</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="F29" s="26">
+        <v>2615</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="F30" s="26">
+        <v>2574</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="F31" s="26">
+        <v>2549</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="F32" s="26">
+        <v>2529</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="F33" s="26">
+        <v>3770</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="F34" s="26">
+        <v>14344</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="F35" s="26">
+        <v>16193</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="F36" s="26">
+        <v>3671</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="F37" s="26">
+        <v>3647</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="I1:I2" xr:uid="{29D1F1ED-9298-44F6-BE2F-6B57B018A922}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I20">
+    <sortCondition ref="F1"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{E581ACDE-5471-4F37-9D87-89E441FD80D1}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{25F54370-AECC-4446-89A8-3F70E336DCE5}"/>
+    <hyperlink ref="A35" r:id="rId1" xr:uid="{D3E87287-BD36-47AD-8E21-AFF33C706C0D}"/>
+    <hyperlink ref="A34" r:id="rId2" xr:uid="{0865EB8C-6F5B-4E55-A426-1318C66FB7E4}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{6099FA2E-7CB9-41C6-8DAA-0C9C2670D794}"/>
+    <hyperlink ref="A3" r:id="rId4" xr:uid="{EE5F4691-AF22-453D-92D3-E91BDFB35D38}"/>
+    <hyperlink ref="A4" r:id="rId5" xr:uid="{F6213AEE-DA77-4B02-99EF-55D12661F666}"/>
+    <hyperlink ref="A36" r:id="rId6" xr:uid="{4908F3E8-D7D7-4FB1-B93F-8FE3A85089A8}"/>
+    <hyperlink ref="A37" r:id="rId7" xr:uid="{BA629DA2-CB9F-4D36-9996-8B56C96F9C17}"/>
+    <hyperlink ref="A5" r:id="rId8" xr:uid="{40CF3167-C5E1-4E30-90AF-A253FEEAAE9E}"/>
+    <hyperlink ref="A6" r:id="rId9" xr:uid="{B4FE525E-F607-4A1D-8AB4-556AB51ACECE}"/>
+    <hyperlink ref="A7" r:id="rId10" xr:uid="{466BDBF2-D2D2-49AB-B05B-CD1840FD9C71}"/>
+    <hyperlink ref="A8" r:id="rId11" xr:uid="{DEB8E9B4-3995-42AF-83FB-AB1A887F7C31}"/>
+    <hyperlink ref="A9" r:id="rId12" xr:uid="{203A71B0-6B17-4B9E-B7FA-F805EC1123E6}"/>
+    <hyperlink ref="A10" r:id="rId13" xr:uid="{23AAF0F2-E4CD-4ABE-AE26-FE047634C472}"/>
+    <hyperlink ref="A11" r:id="rId14" xr:uid="{D866A8A2-C6CE-4D74-9A52-ACB68C842DA2}"/>
+    <hyperlink ref="A12" r:id="rId15" xr:uid="{DEF5C913-FE87-4554-846D-4F202B878EB3}"/>
+    <hyperlink ref="A13" r:id="rId16" xr:uid="{38117218-8B24-4BBE-9073-5AE4BB6D836F}"/>
+    <hyperlink ref="A14" r:id="rId17" xr:uid="{F9C1E23D-A422-4A6B-B45D-F50618FF885A}"/>
+    <hyperlink ref="A15" r:id="rId18" xr:uid="{BAFC83F9-D66D-488B-A9C1-7B23DEF59058}"/>
+    <hyperlink ref="A16" r:id="rId19" xr:uid="{4FC7A00C-D830-46D7-A15D-7C393D6FF70F}"/>
+    <hyperlink ref="A17" r:id="rId20" xr:uid="{6021E227-21C3-46CB-9F7A-84B9C70E7A25}"/>
+    <hyperlink ref="A18" r:id="rId21" xr:uid="{1DB07304-E4CB-448A-A101-F86090FA290D}"/>
+    <hyperlink ref="A19" r:id="rId22" xr:uid="{D6659D98-A5C9-44B4-B9ED-369EFDCFBEED}"/>
+    <hyperlink ref="A20" r:id="rId23" xr:uid="{019B209E-7F31-486F-A796-3D85EFE204CF}"/>
+    <hyperlink ref="A21" r:id="rId24" xr:uid="{FCEE25FC-D56A-4F89-9B53-48D45243FB6A}"/>
+    <hyperlink ref="A22" r:id="rId25" xr:uid="{630F502F-41E5-458A-B70F-6E81B5954CB6}"/>
+    <hyperlink ref="A23" r:id="rId26" xr:uid="{BA70BC2F-06EC-4CD8-9A21-57125E7F3669}"/>
+    <hyperlink ref="A24" r:id="rId27" xr:uid="{91E15FE2-FB11-4657-8616-4C88FB3E2CF7}"/>
+    <hyperlink ref="A25" r:id="rId28" xr:uid="{7ACD968F-BE84-4DFF-92BE-E098ECFCFC3F}"/>
+    <hyperlink ref="A26" r:id="rId29" xr:uid="{D2DF5A10-CE00-4533-883D-49A609181983}"/>
+    <hyperlink ref="A27" r:id="rId30" xr:uid="{1E83144D-27FF-4627-A046-951F7CF520E3}"/>
+    <hyperlink ref="A28" r:id="rId31" xr:uid="{FF68C345-677D-4DBE-8837-C59A043FCFE8}"/>
+    <hyperlink ref="A29" r:id="rId32" xr:uid="{648935BF-BF28-464B-8AA2-4A185C1D5EAA}"/>
+    <hyperlink ref="A30" r:id="rId33" xr:uid="{AF857C04-EB3A-41E6-A0AA-7E6231EAD32A}"/>
+    <hyperlink ref="A31" r:id="rId34" xr:uid="{3A547095-DD6E-42E9-9ADA-24A96CF39131}"/>
+    <hyperlink ref="A32" r:id="rId35" xr:uid="{726ED7E9-C94D-48F0-B11C-CAB525D7F1FC}"/>
+    <hyperlink ref="A33" r:id="rId36" xr:uid="{91CBC576-21EB-4862-9679-F4FAB976B5AE}"/>
+    <hyperlink ref="A38" r:id="rId37" xr:uid="{EB8ABAD1-B813-4D66-894B-DE4E3DF0E921}"/>
+    <hyperlink ref="A39" r:id="rId38" xr:uid="{09E951BF-4218-494E-A2DC-42B308C18548}"/>
+    <hyperlink ref="A40" r:id="rId39" xr:uid="{BCE45C4B-ED61-4430-BCC9-1FFE59143CFC}"/>
+    <hyperlink ref="A41" r:id="rId40" xr:uid="{C6057C1E-A56F-4E7B-BD2D-8D72031A039C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId41"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD023DA2-02A5-4E30-93B3-447F3824485F}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" customWidth="1"/>
+    <col min="8" max="8" width="30.5703125" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="7"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{B37E79C1-7C97-4717-82A5-DFC175F3DF3E}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{0D72A6C4-06A6-4137-8B01-CA374B392EC3}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{2B7CB434-F5D0-409B-A488-736566949C9B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D1CFA7-148C-4B2C-A804-01D1CC1B3487}">
+  <dimension ref="A1:I36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="20">
+        <v>23976</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="20">
+        <v>20554</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="20">
+        <v>20003</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="20">
+        <v>19200</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="20">
+        <v>16386</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="20">
+        <v>15740</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="20">
+        <v>15510</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="20">
+        <v>14130</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="20">
+        <v>13963</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="20">
+        <v>13750</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="20">
+        <v>13702</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="20">
+        <v>13542</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="20">
+        <v>12740</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="20">
+        <v>11967</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="20">
+        <v>12434</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="20">
+        <v>11697</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="20">
+        <v>11476</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="20">
+        <v>11449</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="20">
+        <v>10373</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="20">
+        <v>10318</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="20">
+        <v>10031</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="20">
+        <v>10001</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="F23" s="20">
+        <v>8544</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" s="20">
+        <v>8198</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F25" s="20">
+        <v>7866</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="F26" s="20">
+        <v>7273</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" s="20">
+        <v>10896</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" s="20">
+        <v>8655</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" s="20">
+        <v>7178</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" s="20">
+        <v>7148</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="F31" s="20">
+        <v>6321</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" s="20">
+        <v>24761</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" s="20">
+        <v>11270</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="F34" s="20">
+        <v>9145</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F35" s="20">
+        <v>7480</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F36" s="20">
+        <v>7005</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{345E3DAC-8DC9-450A-9456-5861D7BDFE3A}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{ACCD964E-F090-49D7-B2D8-1F42B5709C2A}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{71BFCEFE-2DD4-4693-85E9-8B495A76A75E}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{93584A72-2236-4841-A1DD-4073C843861C}"/>
+    <hyperlink ref="A5" r:id="rId5" xr:uid="{1AC5B152-73DD-4554-87C1-1B828B23A307}"/>
+    <hyperlink ref="A6" r:id="rId6" xr:uid="{19D0C0E7-E708-43C8-BA55-CD5A679AE704}"/>
+    <hyperlink ref="A7" r:id="rId7" xr:uid="{4E4132F2-52AE-4412-A7F5-48EAFAC7CFBB}"/>
+    <hyperlink ref="A8" r:id="rId8" xr:uid="{962CBD71-362D-4761-8A1C-EF63ED159B36}"/>
+    <hyperlink ref="A9" r:id="rId9" xr:uid="{71D1D2AB-B6E1-4815-87D6-D5ECAE3725BB}"/>
+    <hyperlink ref="A10" r:id="rId10" xr:uid="{F8422CBE-82E1-4975-BEE5-8B932E4E697C}"/>
+    <hyperlink ref="A11" r:id="rId11" xr:uid="{6866C9B1-5605-496D-BD83-042B8BD46F7A}"/>
+    <hyperlink ref="A12" r:id="rId12" xr:uid="{E1968DFA-A14A-4622-B29B-FE04648C6854}"/>
+    <hyperlink ref="A13" r:id="rId13" xr:uid="{25DD3CFA-8CC0-41B5-94A8-7D6B9D7E166B}"/>
+    <hyperlink ref="A14" r:id="rId14" xr:uid="{3CEE8A4E-F907-4902-B3B9-40AC8DB8A8F9}"/>
+    <hyperlink ref="A15" r:id="rId15" xr:uid="{81B5E770-5C67-48E8-A347-FB1DD44B5FFE}"/>
+    <hyperlink ref="A16" r:id="rId16" xr:uid="{63B5A93E-2C29-40E5-97DB-ABEE2BE09A4F}"/>
+    <hyperlink ref="A17" r:id="rId17" xr:uid="{2CC1E042-D53B-4BD3-92F7-2752B6B89122}"/>
+    <hyperlink ref="A18" r:id="rId18" xr:uid="{5227DD90-0AF8-4DEC-BBAB-C0881A618901}"/>
+    <hyperlink ref="A19" r:id="rId19" xr:uid="{B90E4638-4541-422B-BFC7-79B5F97934DC}"/>
+    <hyperlink ref="A20" r:id="rId20" xr:uid="{223C9B7D-EB73-422C-849C-4632B34CF5E6}"/>
+    <hyperlink ref="A21" r:id="rId21" xr:uid="{BBBA252F-65A6-4CD9-998C-B38F260677D8}"/>
+    <hyperlink ref="A22" r:id="rId22" xr:uid="{05A1E02F-73A0-4A5D-BB31-514A14747B0A}"/>
+    <hyperlink ref="A23" r:id="rId23" xr:uid="{3495E3C6-261E-4757-A727-3160A39463F2}"/>
+    <hyperlink ref="A24" r:id="rId24" xr:uid="{35C3C6D5-5FF7-456C-BBDA-2E69DC7EBA0D}"/>
+    <hyperlink ref="A25" r:id="rId25" xr:uid="{62BB4C5E-76FF-41BB-91B7-ABE0258B17E7}"/>
+    <hyperlink ref="A26" r:id="rId26" xr:uid="{3D76618B-2784-4D00-B2C9-7D908B697389}"/>
+    <hyperlink ref="A27" r:id="rId27" xr:uid="{873F23E2-2A87-4EA9-9318-79D113DCE053}"/>
+    <hyperlink ref="A28" r:id="rId28" xr:uid="{E01B6B85-8EFD-43C6-81A5-48FDEE67E0EA}"/>
+    <hyperlink ref="A29" r:id="rId29" xr:uid="{3D137684-FF83-4FA3-9D50-746B489CBDDB}"/>
+    <hyperlink ref="A30" r:id="rId30" xr:uid="{CC932FDC-066E-4485-9099-19CB5F071F85}"/>
+    <hyperlink ref="A31" r:id="rId31" xr:uid="{5E930438-0E2C-4387-8EDB-E6214FB45FCF}"/>
+    <hyperlink ref="A32" r:id="rId32" xr:uid="{F5F38A23-D35F-474B-8C7F-7AFE1D5221B7}"/>
+    <hyperlink ref="A33" r:id="rId33" xr:uid="{04FC0B76-4111-4785-A467-9B2B255AEF5E}"/>
+    <hyperlink ref="A34" r:id="rId34" xr:uid="{49B99776-7944-4A75-B4BA-A8F11CAB6BD4}"/>
+    <hyperlink ref="A35" r:id="rId35" xr:uid="{F833B001-5415-4630-B53F-B4D7523B7408}"/>
+    <hyperlink ref="A36" r:id="rId36" xr:uid="{D3E451D7-BBD9-4181-A70C-8E85F67CD1C8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I139"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1101,967 +4411,897 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13">
-        <v>44483</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="15">
-        <v>4781</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
-        <v>44487</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="15">
-        <v>8318</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
-        <v>44487</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="15">
-        <v>6110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
-        <v>44487</v>
-      </c>
-      <c r="B4" s="18" t="s">
+    <row r="1" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="F1" s="35">
+        <v>19728</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="F2" s="26">
+        <v>9854</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="F3" s="26">
+        <v>6625</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="F4" s="26">
+        <v>7667</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" s="26">
+        <v>3602</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="F6" s="26">
+        <v>7602</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="F7" s="26">
+        <v>3542</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="F8" s="26">
+        <v>4940</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="F9" s="26">
+        <v>6751</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="F10" s="26">
+        <v>4105</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="F11" s="26">
+        <v>18097</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="F12" s="26">
+        <v>3435</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="F13" s="26">
+        <v>6375</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="F14" s="26">
+        <v>4243</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="F15" s="26">
+        <v>5267</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="F16" s="26">
+        <v>5370</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="F17" s="26">
+        <v>3201</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="F18" s="26">
+        <v>4828</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="F19" s="26">
+        <v>4842</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="F20" s="26">
+        <v>3832</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="F21" s="26">
+        <v>5070</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="F22" s="26">
+        <v>3010</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="15">
-        <v>2505</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
-        <v>44487</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="15">
-        <v>7898</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
-        <v>44487</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="15">
-        <v>2380</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13">
-        <v>44487</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="15">
-        <v>3877</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
-        <v>44487</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="15">
-        <v>2447</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13">
-        <v>44487</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="15">
-        <v>22672</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13">
-        <v>44487</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="15">
-        <v>8607</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13">
-        <v>44487</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="15">
-        <v>2207</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13">
-        <v>44487</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="15">
-        <v>3929</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13">
-        <v>44487</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="15">
-        <v>4939</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
-        <v>44487</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="15">
-        <v>2142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13">
-        <v>44487</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="15">
-        <v>2112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
-        <v>44487</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="15">
-        <v>2814</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13">
-        <v>44487</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="15">
-        <v>14408</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13">
-        <v>44487</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="15">
-        <v>2751</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13">
-        <v>44487</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="15">
-        <v>7061</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13">
-        <v>44487</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="15">
-        <v>3873</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13">
-        <v>44487</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="15">
-        <v>7873</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13">
-        <v>44487</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="15">
-        <v>14919</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13">
-        <v>44487</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="15">
-        <v>15537</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13">
-        <v>44487</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="15">
-        <v>3454</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13">
-        <v>44487</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="15">
-        <v>2209</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13">
-        <v>44487</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="15">
-        <v>3930</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="13">
-        <v>44487</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="15">
-        <v>4850</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13">
-        <v>44487</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="15">
-        <v>2604</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13">
-        <v>44487</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="15">
-        <v>5728</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="13">
-        <v>44487</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="15">
-        <v>3203</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13">
-        <v>44487</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="15">
-        <v>6756</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13">
-        <v>44487</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="15">
-        <v>3840</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13">
-        <v>44487</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33" s="15">
-        <v>4446</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13">
-        <v>44487</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="15">
-        <v>2926</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="13">
-        <v>44487</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D35" s="15">
-        <v>2377</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="13">
-        <v>44487</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D36" s="15">
-        <v>5696</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="13">
-        <v>44487</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D37" s="15">
-        <v>6523</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="13">
-        <v>44487</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" s="15">
-        <v>4596</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="13">
-        <v>44487</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D39" s="15">
-        <v>2452</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="13">
-        <v>44487</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D40" s="15">
-        <v>6084</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="13">
-        <v>44487</v>
-      </c>
-      <c r="B41" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D41" s="15">
-        <v>2869</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="13">
-        <v>44487</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D42" s="15">
-        <v>2351</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="13">
-        <v>44487</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D43" s="15">
-        <v>4512</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="13">
-        <v>44487</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D44" s="15">
-        <v>3114</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="13">
-        <v>44487</v>
-      </c>
-      <c r="B45" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D45" s="15">
-        <v>2288</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="13">
-        <v>44487</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D46" s="15">
-        <v>2766</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="13">
-        <v>44487</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D47" s="15">
-        <v>2427</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="13">
-        <v>44487</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D48" s="15">
-        <v>4481</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="13">
-        <v>44487</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D49" s="15">
-        <v>15076</v>
-      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="F23" s="26">
+        <v>11399</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="28"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="36"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="13"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="13"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="13"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="13"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="13"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="13"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="13"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="13"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="13"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="13"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="13"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="13"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="13"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="13"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="13"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="13"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="15"/>
     </row>
     <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="13">
-        <v>44487</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D50" s="15">
-        <v>10616</v>
-      </c>
+      <c r="A50" s="13"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="13">
-        <v>44487</v>
-      </c>
-      <c r="B51" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D51" s="15">
-        <v>5551</v>
-      </c>
+      <c r="A51" s="13"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
     </row>
     <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="13">
-        <v>44487</v>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D52" s="15">
-        <v>3499</v>
-      </c>
+      <c r="A52" s="13"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
     </row>
     <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="13">
-        <v>44487</v>
-      </c>
-      <c r="B53" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D53" s="15">
-        <v>6438</v>
-      </c>
+      <c r="A53" s="13"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
     </row>
     <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="13">
-        <v>44487</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D54" s="15">
-        <v>2581</v>
-      </c>
+      <c r="A54" s="13"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
     </row>
     <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="16">
-        <v>44489</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D55" s="15">
-        <v>3779</v>
-      </c>
+      <c r="A55" s="16"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
     </row>
     <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="16">
-        <v>44489</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D56" s="15">
-        <v>2816</v>
-      </c>
+      <c r="A56" s="16"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
     </row>
     <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="16">
-        <v>44489</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D57" s="15">
-        <v>4573</v>
-      </c>
+      <c r="A57" s="16"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
     </row>
     <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="16">
-        <v>44489</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D58" s="15">
-        <v>2208</v>
-      </c>
+      <c r="A58" s="16"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
     </row>
     <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="16">
-        <v>44490</v>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D59" s="15">
-        <v>2601</v>
-      </c>
+      <c r="A59" s="16"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
     </row>
     <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="16">
-        <v>44490</v>
-      </c>
-      <c r="B60" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D60" s="15">
-        <v>2506</v>
-      </c>
+      <c r="A60" s="16"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
     </row>
     <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="16">
-        <v>44490</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D61" s="15">
-        <v>6467</v>
-      </c>
+      <c r="A61" s="16"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
     </row>
     <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="16">
-        <v>44491</v>
-      </c>
-      <c r="B62" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="C62" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="D62" s="15">
-        <v>7268</v>
-      </c>
+      <c r="A62" s="16"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
     </row>
     <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="16">
-        <v>44494</v>
-      </c>
-      <c r="B63" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D63" s="15">
-        <v>3331</v>
-      </c>
+      <c r="A63" s="16"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
     </row>
     <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="16">
-        <v>44494</v>
-      </c>
-      <c r="B64" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="C64" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="D64" s="15">
-        <v>4071</v>
-      </c>
+      <c r="A64" s="16"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
     </row>
     <row r="65" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="16">
-        <v>44494</v>
-      </c>
-      <c r="B65" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D65" s="15">
-        <v>8400</v>
-      </c>
+      <c r="A65" s="16"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
     </row>
     <row r="66" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="16">
-        <v>44494</v>
-      </c>
-      <c r="B66" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D66" s="15">
-        <v>6009</v>
-      </c>
+      <c r="A66" s="16"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
     </row>
     <row r="67" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="16">
-        <v>44494</v>
-      </c>
-      <c r="B67" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D67" s="15">
-        <v>3311</v>
-      </c>
+      <c r="A67" s="16"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
     </row>
     <row r="68" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="16">
-        <v>44494</v>
-      </c>
-      <c r="B68" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="C68" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D68" s="15">
-        <v>3290</v>
-      </c>
+      <c r="A68" s="16"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
     </row>
     <row r="69" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="14"/>
       <c r="B69" s="18"/>
-      <c r="C69" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D69" s="15">
-        <v>355033</v>
-      </c>
+      <c r="C69" s="17"/>
+      <c r="D69" s="15"/>
     </row>
     <row r="71" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="72" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2078,7 +5318,7 @@
         <v>6</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="F72" s="7"/>
       <c r="G72" s="12"/>
@@ -2099,7 +5339,7 @@
         <v>6</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
@@ -2120,7 +5360,7 @@
         <v>6</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="F74" s="7"/>
       <c r="G74" s="4"/>
@@ -2141,14 +5381,14 @@
         <v>6</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="F75" s="7"/>
       <c r="G75" s="4"/>
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
     </row>
-    <row r="76" spans="1:9" s="8" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>10</v>
       </c>
@@ -2162,7 +5402,7 @@
         <v>6</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
@@ -2183,14 +5423,14 @@
         <v>6</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c r="H77" s="10"/>
       <c r="I77" s="10"/>
     </row>
-    <row r="78" spans="1:9" s="5" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" s="5" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>10</v>
       </c>
@@ -2204,14 +5444,14 @@
         <v>6</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="F78" s="7"/>
       <c r="G78" s="4"/>
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
     </row>
-    <row r="79" spans="1:9" s="8" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>10</v>
       </c>
@@ -2225,7 +5465,7 @@
         <v>6</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
@@ -2244,7 +5484,7 @@
         <v>6</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
@@ -2263,7 +5503,7 @@
         <v>6</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
@@ -2282,7 +5522,7 @@
         <v>6</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
@@ -2301,7 +5541,7 @@
         <v>6</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
@@ -2320,7 +5560,7 @@
         <v>6</v>
       </c>
       <c r="E84" s="18" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
@@ -2339,7 +5579,7 @@
         <v>6</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
@@ -2358,7 +5598,7 @@
         <v>6</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
@@ -2377,7 +5617,7 @@
         <v>6</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
@@ -2396,7 +5636,7 @@
         <v>6</v>
       </c>
       <c r="E88" s="18" t="s">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
@@ -2415,7 +5655,7 @@
         <v>6</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
@@ -2434,7 +5674,7 @@
         <v>6</v>
       </c>
       <c r="E90" s="18" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
@@ -2453,7 +5693,7 @@
         <v>6</v>
       </c>
       <c r="E91" s="18" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
@@ -2472,7 +5712,7 @@
         <v>6</v>
       </c>
       <c r="E92" s="18" t="s">
-        <v>109</v>
+        <v>41</v>
       </c>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
@@ -2491,7 +5731,7 @@
         <v>6</v>
       </c>
       <c r="E93" s="18" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
@@ -2510,7 +5750,7 @@
         <v>6</v>
       </c>
       <c r="E94" s="18" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
@@ -2529,7 +5769,7 @@
         <v>6</v>
       </c>
       <c r="E95" s="18" t="s">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
@@ -2548,7 +5788,7 @@
         <v>6</v>
       </c>
       <c r="E96" s="18" t="s">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
@@ -2567,7 +5807,7 @@
         <v>6</v>
       </c>
       <c r="E97" s="18" t="s">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
@@ -2586,7 +5826,7 @@
         <v>6</v>
       </c>
       <c r="E98" s="18" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
@@ -2605,7 +5845,7 @@
         <v>6</v>
       </c>
       <c r="E99" s="18" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
@@ -2624,7 +5864,7 @@
         <v>6</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
@@ -2643,7 +5883,7 @@
         <v>6</v>
       </c>
       <c r="E101" s="18" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
@@ -2662,7 +5902,7 @@
         <v>6</v>
       </c>
       <c r="E102" s="18" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
@@ -2681,7 +5921,7 @@
         <v>6</v>
       </c>
       <c r="E103" s="18" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
@@ -2700,7 +5940,7 @@
         <v>6</v>
       </c>
       <c r="E104" s="18" t="s">
-        <v>121</v>
+        <v>53</v>
       </c>
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
@@ -2719,7 +5959,7 @@
         <v>6</v>
       </c>
       <c r="E105" s="18" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
@@ -2738,7 +5978,7 @@
         <v>6</v>
       </c>
       <c r="E106" s="18" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
@@ -2757,7 +5997,7 @@
         <v>6</v>
       </c>
       <c r="E107" s="18" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
@@ -2776,7 +6016,7 @@
         <v>6</v>
       </c>
       <c r="E108" s="18" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
@@ -2795,7 +6035,7 @@
         <v>6</v>
       </c>
       <c r="E109" s="18" t="s">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
@@ -2814,7 +6054,7 @@
         <v>6</v>
       </c>
       <c r="E110" s="18" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
@@ -2833,7 +6073,7 @@
         <v>6</v>
       </c>
       <c r="E111" s="18" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
@@ -2852,7 +6092,7 @@
         <v>6</v>
       </c>
       <c r="E112" s="18" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
@@ -2871,7 +6111,7 @@
         <v>6</v>
       </c>
       <c r="E113" s="18" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
@@ -2890,7 +6130,7 @@
         <v>6</v>
       </c>
       <c r="E114" s="18" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
@@ -2909,7 +6149,7 @@
         <v>6</v>
       </c>
       <c r="E115" s="18" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
@@ -2928,7 +6168,7 @@
         <v>6</v>
       </c>
       <c r="E116" s="18" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
@@ -2947,7 +6187,7 @@
         <v>6</v>
       </c>
       <c r="E117" s="18" t="s">
-        <v>134</v>
+        <v>66</v>
       </c>
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
@@ -2966,7 +6206,7 @@
         <v>6</v>
       </c>
       <c r="E118" s="18" t="s">
-        <v>135</v>
+        <v>67</v>
       </c>
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
@@ -2985,7 +6225,7 @@
         <v>6</v>
       </c>
       <c r="E119" s="18" t="s">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
@@ -3004,7 +6244,7 @@
         <v>6</v>
       </c>
       <c r="E120" s="18" t="s">
-        <v>137</v>
+        <v>69</v>
       </c>
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
@@ -3023,7 +6263,7 @@
         <v>6</v>
       </c>
       <c r="E121" s="18" t="s">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
@@ -3042,7 +6282,7 @@
         <v>6</v>
       </c>
       <c r="E122" s="18" t="s">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
@@ -3061,7 +6301,7 @@
         <v>6</v>
       </c>
       <c r="E123" s="18" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
@@ -3080,7 +6320,7 @@
         <v>6</v>
       </c>
       <c r="E124" s="18" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
@@ -3099,7 +6339,7 @@
         <v>6</v>
       </c>
       <c r="E125" s="18" t="s">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
@@ -3118,7 +6358,7 @@
         <v>6</v>
       </c>
       <c r="E126" s="18" t="s">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
@@ -3137,7 +6377,7 @@
         <v>6</v>
       </c>
       <c r="E127" s="18" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
@@ -3156,7 +6396,7 @@
         <v>6</v>
       </c>
       <c r="E128" s="18" t="s">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
@@ -3175,7 +6415,7 @@
         <v>6</v>
       </c>
       <c r="E129" s="18" t="s">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
@@ -3194,7 +6434,7 @@
         <v>6</v>
       </c>
       <c r="E130" s="18" t="s">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
@@ -3213,7 +6453,7 @@
         <v>6</v>
       </c>
       <c r="E131" s="18" t="s">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
@@ -3232,7 +6472,7 @@
         <v>6</v>
       </c>
       <c r="E132" s="18" t="s">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
@@ -3251,7 +6491,7 @@
         <v>6</v>
       </c>
       <c r="E133" s="18" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="F133" s="7"/>
       <c r="G133" s="7"/>
@@ -3270,7 +6510,7 @@
         <v>6</v>
       </c>
       <c r="E134" s="18" t="s">
-        <v>151</v>
+        <v>83</v>
       </c>
       <c r="F134" s="7"/>
       <c r="G134" s="7"/>
@@ -3289,7 +6529,7 @@
         <v>6</v>
       </c>
       <c r="E135" s="18" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="F135" s="7"/>
       <c r="G135" s="7"/>
@@ -3308,7 +6548,7 @@
         <v>6</v>
       </c>
       <c r="E136" s="18" t="s">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="F136" s="7"/>
       <c r="G136" s="7"/>
@@ -3327,7 +6567,7 @@
         <v>6</v>
       </c>
       <c r="E137" s="18" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="F137" s="7"/>
       <c r="G137" s="7"/>
@@ -3346,7 +6586,7 @@
         <v>6</v>
       </c>
       <c r="E138" s="18" t="s">
-        <v>155</v>
+        <v>87</v>
       </c>
       <c r="F138" s="7"/>
       <c r="G138" s="7"/>
@@ -3365,12 +6605,15 @@
         <v>6</v>
       </c>
       <c r="E139" s="18" t="s">
-        <v>156</v>
+        <v>88</v>
       </c>
       <c r="F139" s="7"/>
       <c r="G139" s="7"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:I139">
+    <sortCondition ref="H28"/>
+  </sortState>
   <hyperlinks>
     <hyperlink ref="A74" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="A75" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
@@ -3440,22 +6683,47 @@
     <hyperlink ref="A138" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
     <hyperlink ref="A139" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
     <hyperlink ref="A72" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
+    <hyperlink ref="A1" r:id="rId69" xr:uid="{B14E0BFF-2B38-43CA-B920-A92D25DE4FE5}"/>
+    <hyperlink ref="A3" r:id="rId70" xr:uid="{F412FD52-64FE-4101-AD96-2C92CE14B53A}"/>
+    <hyperlink ref="A2" r:id="rId71" xr:uid="{A0590AFC-E499-4707-B258-D6A85A94DC26}"/>
+    <hyperlink ref="A4" r:id="rId72" xr:uid="{B78E25BB-5024-490D-B922-79646EFD557B}"/>
+    <hyperlink ref="A14" r:id="rId73" xr:uid="{5FA81A23-0FBC-4AC4-8D78-5535A0C0D6FC}"/>
+    <hyperlink ref="A5" r:id="rId74" xr:uid="{26CA1E7E-4FFB-4EF0-946E-B819466721F3}"/>
+    <hyperlink ref="A7" r:id="rId75" xr:uid="{E4594449-F179-4D71-B641-831346474850}"/>
+    <hyperlink ref="A6" r:id="rId76" xr:uid="{69169CB7-6051-4795-8378-8DA36D8CBCEF}"/>
+    <hyperlink ref="A8" r:id="rId77" xr:uid="{95EF9368-51A6-443E-A3EA-F7E6455AD889}"/>
+    <hyperlink ref="A9" r:id="rId78" xr:uid="{B2A79D0C-E92F-40A6-B591-C4B8F9CF6988}"/>
+    <hyperlink ref="A15" r:id="rId79" xr:uid="{FACB450E-AA3C-4134-910B-357577EBCB86}"/>
+    <hyperlink ref="A10" r:id="rId80" xr:uid="{0D9FAB8B-4636-41A6-A985-D5A187D12574}"/>
+    <hyperlink ref="A16" r:id="rId81" xr:uid="{089D2E9E-5576-4485-9890-8FDF05EEAC76}"/>
+    <hyperlink ref="A11" r:id="rId82" xr:uid="{1DDBDE64-0421-4B3C-913A-E16E939EE207}"/>
+    <hyperlink ref="A17" r:id="rId83" xr:uid="{476A3D7D-BDF4-4EAC-A333-06660CE75AC0}"/>
+    <hyperlink ref="A18" r:id="rId84" xr:uid="{711BA2A4-1C2E-41B0-99DC-9B6CE1B27DF2}"/>
+    <hyperlink ref="A19" r:id="rId85" xr:uid="{2EA1DCC0-9227-4F54-BB5C-4EBFD0351E53}"/>
+    <hyperlink ref="A20" r:id="rId86" xr:uid="{343B6DA2-313E-49FC-9CC9-B31CB46413F7}"/>
+    <hyperlink ref="A12" r:id="rId87" xr:uid="{D3538EFB-A82F-4A86-8715-C64A6F30A92F}"/>
+    <hyperlink ref="A13" r:id="rId88" xr:uid="{90088BA0-EF1B-4A8D-9E2D-0C01C734F322}"/>
+    <hyperlink ref="A21" r:id="rId89" xr:uid="{80F3E562-F95A-4EA8-A3F6-18AD0FC520E3}"/>
+    <hyperlink ref="A22" r:id="rId90" xr:uid="{A2A48A65-D05A-4305-948E-B8E522BB0202}"/>
+    <hyperlink ref="A23" r:id="rId91" xr:uid="{CE099131-D237-4599-8547-0D951F0E7EDB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId69"/>
+  <pageSetup orientation="portrait" r:id="rId92"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="A4" sqref="A4:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.7109375" bestFit="1" customWidth="1"/>
@@ -3499,7 +6767,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="12"/>
@@ -3510,10 +6778,1805 @@
         <v>18</v>
       </c>
     </row>
+    <row r="4" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
     <hyperlink ref="A2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{E581ACDE-5471-4F37-9D87-89E441FD80D1}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{25F54370-AECC-4446-89A8-3F70E336DCE5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D11A61-E521-4BD8-8AE6-6A8271E26B99}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:XFD57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="F2" s="26">
+        <v>3229</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="F3" s="26">
+        <v>3279</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="F4" s="26">
+        <v>3297</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="F5" s="26">
+        <v>3426</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="F6" s="26">
+        <v>3461</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="F7" s="26">
+        <v>3638</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="F8" s="26">
+        <v>3652</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="F9" s="26">
+        <v>3683</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="F10" s="26">
+        <v>3763</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="F11" s="26">
+        <v>3903</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="F12" s="26">
+        <v>3987</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="F13" s="26">
+        <v>4078</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="F14" s="26">
+        <v>4084</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="F15" s="26">
+        <v>4157</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="F16" s="26">
+        <v>4195</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="F17" s="26">
+        <v>4277</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="F18" s="26">
+        <v>4361</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="F19" s="26">
+        <v>4526</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="F20" s="26">
+        <v>4527</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="F21" s="26">
+        <v>4554</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="F22" s="26">
+        <v>4762</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="F23" s="26">
+        <v>4880</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="F24" s="26">
+        <v>4909</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="F25" s="26">
+        <v>5042</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="F26" s="26">
+        <v>5118</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="F27" s="26">
+        <v>5187</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="F28" s="26">
+        <v>5304</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="F29" s="26">
+        <v>5364</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="F30" s="26">
+        <v>5644</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="F31" s="26">
+        <v>6130</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="F32" s="26">
+        <v>6586</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="F33" s="26">
+        <v>6624</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="F34" s="26">
+        <v>7133</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="F35" s="26">
+        <v>7175</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="F36" s="26">
+        <v>7306</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="F37" s="26">
+        <v>7975</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="F38" s="26">
+        <v>8792</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="F39" s="26">
+        <v>9354</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+    </row>
+    <row r="40" spans="1:9" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="F40" s="26">
+        <v>9809</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+    </row>
+    <row r="41" spans="1:9" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="F41" s="26">
+        <v>10895</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+    </row>
+    <row r="42" spans="1:9" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="F42" s="26">
+        <v>13322</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+    </row>
+    <row r="43" spans="1:9" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="F43" s="26">
+        <v>14344</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+    </row>
+    <row r="44" spans="1:9" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="F44" s="26">
+        <v>16193</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+    </row>
+    <row r="45" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="F45" s="26">
+        <v>4195</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="F46" s="26">
+        <v>6586</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="F47" s="26">
+        <v>6624</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="F48" s="26">
+        <v>5042</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="F49" s="26">
+        <v>7175</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="F50" s="26">
+        <v>7306</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="F51" s="26">
+        <v>7975</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="F52" s="26">
+        <v>9354</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="F53" s="26">
+        <v>9809</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="F54" s="26">
+        <v>5644</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="F55" s="26">
+        <v>10895</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="F56" s="26">
+        <v>3758</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="F57" s="26">
+        <v>3489</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="I1:I44" xr:uid="{2AFB6D67-8F85-45DC-B1F2-51D496CADD17}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Success"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="A44" r:id="rId1" xr:uid="{C4D85549-A970-41D3-A340-54D98BEB7BEE}"/>
+    <hyperlink ref="A17" r:id="rId2" xr:uid="{7CA5108B-B757-4E7F-B9F7-17BA312C87DD}"/>
+    <hyperlink ref="A32" r:id="rId3" xr:uid="{5879FFE5-3C90-414F-88D1-DAF9859B3D7E}"/>
+    <hyperlink ref="A22" r:id="rId4" xr:uid="{A2EDEF86-84A3-4A03-826F-FCDC905D938C}"/>
+    <hyperlink ref="A36" r:id="rId5" xr:uid="{26E29AB2-D413-47CF-8B02-4D03DD79A7C1}"/>
+    <hyperlink ref="A4" r:id="rId6" xr:uid="{9AA14C52-DC23-43E3-AE0D-FD77CF90975B}"/>
+    <hyperlink ref="A34" r:id="rId7" xr:uid="{66DE1390-9A76-4C4C-A0A7-B2EEFBA5B5EE}"/>
+    <hyperlink ref="A6" r:id="rId8" xr:uid="{F8633ED6-2CE1-439E-997D-7858DE5852FB}"/>
+    <hyperlink ref="A13" r:id="rId9" xr:uid="{F40BB806-FD78-4B42-B5A1-2A8560877376}"/>
+    <hyperlink ref="A40" r:id="rId10" xr:uid="{F050F10A-1D73-4472-9EC1-451AEC918BDE}"/>
+    <hyperlink ref="A43" r:id="rId11" xr:uid="{714D960E-4A3F-49D6-B00C-24684A0B54B0}"/>
+    <hyperlink ref="A24" r:id="rId12" xr:uid="{329A3AEE-DFDA-4D92-8CBA-E94A3BBC33B8}"/>
+    <hyperlink ref="A12" r:id="rId13" xr:uid="{D049B6AB-B884-4291-8684-18AD2ACC4003}"/>
+    <hyperlink ref="A37" r:id="rId14" xr:uid="{5CB3D251-6D19-432C-BF12-EA38732DB101}"/>
+    <hyperlink ref="A33" r:id="rId15" xr:uid="{76E23A33-FFE7-477D-8BD0-A80D560CCCB8}"/>
+    <hyperlink ref="A39" r:id="rId16" xr:uid="{3D50EB83-0757-4F17-B023-7C2BB9DF5F40}"/>
+    <hyperlink ref="A29" r:id="rId17" xr:uid="{DF1A67BE-5222-4823-9155-9F22A08626CE}"/>
+    <hyperlink ref="A7" r:id="rId18" xr:uid="{3447EEAF-B662-4371-B8AF-EBFD19C7B145}"/>
+    <hyperlink ref="A42" r:id="rId19" xr:uid="{0B79F19C-FA93-48A4-B7D7-ABCDFF006D6E}"/>
+    <hyperlink ref="A30" r:id="rId20" xr:uid="{FF2E784E-2FCD-433D-A64B-66AC76AC4DA4}"/>
+    <hyperlink ref="A10" r:id="rId21" xr:uid="{F4FDA0C8-9926-44D7-8EF5-5C62285491C3}"/>
+    <hyperlink ref="A26" r:id="rId22" xr:uid="{27F7294F-339B-474D-B6B3-EC9B769DD493}"/>
+    <hyperlink ref="A2" r:id="rId23" xr:uid="{0042D1CA-7F7B-4E1E-8045-BC2A9756E57E}"/>
+    <hyperlink ref="A8" r:id="rId24" xr:uid="{28220143-EF00-4945-AE25-FE7F4E6FAA5A}"/>
+    <hyperlink ref="A15" r:id="rId25" xr:uid="{DF11CA03-EDF6-465D-8F15-4061D6791591}"/>
+    <hyperlink ref="A14" r:id="rId26" xr:uid="{4684EA6E-EAD1-41E3-8317-A14E59678AC1}"/>
+    <hyperlink ref="A9" r:id="rId27" xr:uid="{7D1D82BD-21AB-474C-8CD9-82DD89EEF087}"/>
+    <hyperlink ref="A19" r:id="rId28" xr:uid="{1FD1A815-ABA5-4469-A4B8-1D31203DC8F9}"/>
+    <hyperlink ref="A28" r:id="rId29" xr:uid="{DD031C4A-694E-473E-B127-F3097F47FBCD}"/>
+    <hyperlink ref="A31" r:id="rId30" xr:uid="{C92DFD72-A858-4BBB-9B1D-32BFB541658F}"/>
+    <hyperlink ref="A27" r:id="rId31" xr:uid="{561BCA99-57F7-45AE-BEB4-F5F5BAFCAFE6}"/>
+    <hyperlink ref="A18" r:id="rId32" xr:uid="{26A8AC99-4163-4335-A3BC-D4BE571DF3E0}"/>
+    <hyperlink ref="A16" r:id="rId33" xr:uid="{2E5470C3-80FE-4404-AACE-DCA829366267}"/>
+    <hyperlink ref="A25" r:id="rId34" xr:uid="{B647F133-D6B0-4214-8E66-46AAD0B2A049}"/>
+    <hyperlink ref="A35" r:id="rId35" xr:uid="{5637B5EB-B2FA-4260-B9EA-FD8950DD1B9C}"/>
+    <hyperlink ref="A11" r:id="rId36" xr:uid="{358B23D7-1C16-46E9-9E8E-4004FEA71059}"/>
+    <hyperlink ref="A3" r:id="rId37" xr:uid="{ECDF34A4-3550-48E5-A562-FDD6BF3E3241}"/>
+    <hyperlink ref="A20" r:id="rId38" xr:uid="{C14A823E-1DB6-4C52-A0E8-B6F8C95790DF}"/>
+    <hyperlink ref="A38" r:id="rId39" xr:uid="{00B8DF66-011E-4E01-83ED-40F5F7E38479}"/>
+    <hyperlink ref="A5" r:id="rId40" xr:uid="{13CBB2E5-4317-41E8-9EE3-096EB222BA11}"/>
+    <hyperlink ref="A21" r:id="rId41" xr:uid="{626083CA-F9E5-4D32-B707-C32D72C51E8F}"/>
+    <hyperlink ref="A23" r:id="rId42" xr:uid="{9331B54A-AE57-477E-859E-91E606BDF4A8}"/>
+    <hyperlink ref="A41" r:id="rId43" xr:uid="{40D6F597-6DF0-45DF-B627-B31EE7EB12D4}"/>
+    <hyperlink ref="A45" r:id="rId44" xr:uid="{28D5BBD5-9147-4471-8DF3-F7146976732B}"/>
+    <hyperlink ref="A46" r:id="rId45" xr:uid="{BB73E17B-F03D-4D17-8730-98C6163625A7}"/>
+    <hyperlink ref="A47" r:id="rId46" xr:uid="{B1E2D958-E9A3-4290-8C39-3FF5649C15F5}"/>
+    <hyperlink ref="A48" r:id="rId47" xr:uid="{3AC005FB-9DB3-4054-8B6F-2D11B87078E8}"/>
+    <hyperlink ref="A50" r:id="rId48" xr:uid="{38A97AB9-4987-4425-849C-AC2705302C23}"/>
+    <hyperlink ref="A53" r:id="rId49" xr:uid="{8DDA7A83-A751-409B-9C67-FB00B5ACCC10}"/>
+    <hyperlink ref="A51" r:id="rId50" xr:uid="{43496467-E277-46AA-9272-67ACDC553462}"/>
+    <hyperlink ref="A52" r:id="rId51" xr:uid="{A4C96408-C0BA-49A4-BF3C-534979E59C21}"/>
+    <hyperlink ref="A49" r:id="rId52" xr:uid="{8364BD36-32A6-4E77-86D2-AFF312D58C07}"/>
+    <hyperlink ref="A54" r:id="rId53" xr:uid="{A06E4561-0D1B-48A8-A9B0-C059001C71CD}"/>
+    <hyperlink ref="A55" r:id="rId54" xr:uid="{A958D3AF-CD46-4F7C-96BC-9D7D6FFC8D1D}"/>
+    <hyperlink ref="A56" r:id="rId55" xr:uid="{6EEE1BF2-3696-437B-B8E2-BB2707283F43}"/>
+    <hyperlink ref="A57" r:id="rId56" xr:uid="{C3390EB1-43C1-40E9-8173-CB198E1F94C9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
